--- a/Other Files/Awards.xlsx
+++ b/Other Files/Awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\011445\Documents\GitHub\TLTBO\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BF8C01-D4AC-49C5-B14A-68B94E3F4A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD1CDF8-30D0-4CE2-AAEF-4DFB3789914A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{97319E4F-B1EE-4DDB-AA60-B3D10D4D509C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Awards</t>
   </si>
@@ -114,6 +114,45 @@
   </si>
   <si>
     <t>Off</t>
+  </si>
+  <si>
+    <t>Results:</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>Chris (32)</t>
+  </si>
+  <si>
+    <t>Nick (31)</t>
+  </si>
+  <si>
+    <t>Ryan (19)</t>
+  </si>
+  <si>
+    <t>Teammate</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>MIP</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>X-Factor</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Fifth-Man</t>
+  </si>
+  <si>
+    <t>Clarrie</t>
   </si>
 </sst>
 </file>
@@ -541,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17284568-FFBF-4DA5-8ED7-32877A556BDE}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -801,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>12</v>
       </c>
@@ -821,10 +860,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -832,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -845,8 +884,11 @@
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
@@ -859,8 +901,20 @@
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -873,8 +927,14 @@
       <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -887,8 +947,14 @@
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -901,12 +967,24 @@
       <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="6" t="s">
         <v>17</v>
@@ -916,7 +994,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
@@ -930,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
@@ -944,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>21</v>
       </c>
@@ -958,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>22</v>
       </c>
@@ -972,7 +1050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>24</v>
       </c>
